--- a/MainTop/shk-excel.xlsx
+++ b/MainTop/shk-excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t xml:space="preserve">баркод товара</t>
   </si>
@@ -34,37 +34,169 @@
     <t xml:space="preserve">срок годности</t>
   </si>
   <si>
-    <t xml:space="preserve">OZN1407682142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB_1161776487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1407684701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1407655164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1407655063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1407654857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1138519825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1138530248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1138543501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1138546521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1138548149</t>
+    <t xml:space="preserve">OZN1425245752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB_1162475853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425243566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425275426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425275399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137414937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB_1162475859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137418791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137421126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137427457</t>
   </si>
 </sst>
 </file>
@@ -169,17 +301,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -201,8 +333,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
@@ -212,8 +344,8 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -223,8 +355,8 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -234,8 +366,8 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -245,8 +377,8 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -256,8 +388,8 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>3</v>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -267,8 +399,8 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>4</v>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -278,8 +410,8 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -289,7 +421,7 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -300,11 +432,484 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>4</v>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/MainTop/shk-excel.xlsx
+++ b/MainTop/shk-excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t xml:space="preserve">баркод товара</t>
   </si>
@@ -34,10 +34,13 @@
     <t xml:space="preserve">срок годности</t>
   </si>
   <si>
+    <t xml:space="preserve">если товар с кизом, заполните – да</t>
+  </si>
+  <si>
     <t xml:space="preserve">OZN1425245752</t>
   </si>
   <si>
-    <t xml:space="preserve">WB_1162475853</t>
+    <t xml:space="preserve">WB_1164239990</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425243566</t>
@@ -145,9 +148,6 @@
     <t xml:space="preserve">OZN1425250722</t>
   </si>
   <si>
-    <t xml:space="preserve">OZN1425250661</t>
-  </si>
-  <si>
     <t xml:space="preserve">OZN1425250650</t>
   </si>
   <si>
@@ -184,19 +184,16 @@
     <t xml:space="preserve">OZN1425250637</t>
   </si>
   <si>
-    <t xml:space="preserve">OZN1137414937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB_1162475859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1137418791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1137421126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1137427457</t>
+    <t xml:space="preserve">OZN1431071314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1431096420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1431070205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1431089549</t>
   </si>
 </sst>
 </file>
@@ -301,18 +298,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,555 +326,558 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,10 +885,10 @@
         <v>56</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,21 +896,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
